--- a/Processed Results/Nexus 5X/HTTPS Request/HTTPS Request - Processed.xlsx
+++ b/Processed Results/Nexus 5X/HTTPS Request/HTTPS Request - Processed.xlsx
@@ -1,31 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luuk1\Desktop\Bachelor Project\BachelorProject\Processed Results\Mi 9T\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luuk1\Desktop\Bachelor Project\BachelorProject\Processed Results\Nexus 5X\HTTPS Request\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3541826-66FA-4B78-9627-903E440F30A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33BD6594-168C-4E7F-B062-0A0EC62FCD42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BD96B59B-3C3E-42C2-91CD-DAE8785DB1E9}"/>
+    <workbookView xWindow="130" yWindow="120" windowWidth="9990" windowHeight="9830" xr2:uid="{BD96B59B-3C3E-42C2-91CD-DAE8785DB1E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Blad1!$A$66:$A$95</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Blad1!$B$65</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Blad1!$B$66:$B$95</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Blad1!$A$98:$A$187</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Blad1!$B$98:$B$187</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Blad1!$A$34:$A$63</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Blad1!$B$33</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Blad1!$B$34:$B$63</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Blad1!$A$2:$A$31</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Blad1!$B$2:$B$31</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Blad1!$A$34:$A$63</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Blad1!$B$33</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Blad1!$A$66:$A$95</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Blad1!$B$65</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Blad1!$B$66:$B$95</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Blad1!$B$34:$B$63</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Blad1!$A$2:$A$31</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Blad1!$B$2:$B$31</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Blad1!$A$66:$A$95</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Blad1!$B$65</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Blad1!$B$66:$B$95</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Blad1!$A$98:$A$187</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Blad1!$B$98:$B$187</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -283,94 +286,94 @@
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>124.104024</c:v>
+                  <c:v>135.363888</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>109.325952</c:v>
+                  <c:v>121.996511999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>125.216352</c:v>
+                  <c:v>120.76732800000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>111.391704</c:v>
+                  <c:v>119.23084799999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>142.69579200000001</c:v>
+                  <c:v>119.384496</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>115.523208</c:v>
+                  <c:v>119.384496</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>109.325952</c:v>
+                  <c:v>119.384496</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>123.94512</c:v>
+                  <c:v>119.999088</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>110.279376</c:v>
+                  <c:v>119.384496</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>115.841016</c:v>
+                  <c:v>119.53814399999899</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>108.05472</c:v>
+                  <c:v>119.69179200000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>110.438279999999</c:v>
+                  <c:v>117.54071999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>107.895816</c:v>
+                  <c:v>137.05401599999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>107.2602</c:v>
+                  <c:v>136.74672000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>112.504032</c:v>
+                  <c:v>136.74672000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>130.93689599999999</c:v>
+                  <c:v>120.152736</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>111.550608</c:v>
+                  <c:v>119.23084799999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>119.97252</c:v>
+                  <c:v>119.384496</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>107.895816</c:v>
+                  <c:v>120.460032</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>107.419104</c:v>
+                  <c:v>119.384496</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>107.2602</c:v>
+                  <c:v>119.84544</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>106.14787200000001</c:v>
+                  <c:v>119.0772</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>112.504032</c:v>
+                  <c:v>107.860895999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>105.19444799999999</c:v>
+                  <c:v>119.53814399999899</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>110.597184</c:v>
+                  <c:v>134.90294399999999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>109.008144</c:v>
+                  <c:v>135.67118400000001</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>112.980744</c:v>
+                  <c:v>134.288352</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>109.008144</c:v>
+                  <c:v>134.59564800000001</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>111.709512</c:v>
+                  <c:v>118.769904</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>127.1232</c:v>
+                  <c:v>119.69179200000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -454,10 +457,10 @@
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>114.10366559999997</c:v>
+                  <c:v>123.50226239999991</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>114.10366559999997</c:v>
+                  <c:v>123.50226239999991</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -608,7 +611,6 @@
         <c:axId val="509815096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="145"/>
           <c:min val="105"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -920,94 +922,94 @@
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>136.11294000000001</c:v>
+                  <c:v>116.223912</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>113.92574399999999</c:v>
+                  <c:v>122.80262399999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>120.849408</c:v>
+                  <c:v>119.983176</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>120.37734</c:v>
+                  <c:v>120.60972</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>112.82425199999901</c:v>
+                  <c:v>120.92299199999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>129.66134400000001</c:v>
+                  <c:v>120.139811999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>138.00121200000001</c:v>
+                  <c:v>120.296448</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>131.864328</c:v>
+                  <c:v>121.3929</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>115.18459199999999</c:v>
+                  <c:v>119.669904</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>113.29631999999999</c:v>
+                  <c:v>119.82653999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>120.534696</c:v>
+                  <c:v>120.139811999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>110.621268</c:v>
+                  <c:v>121.549536</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>108.103572</c:v>
+                  <c:v>135.64677599999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>111.40804799999999</c:v>
+                  <c:v>139.249404</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>112.50954</c:v>
+                  <c:v>135.49014</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>115.65665999999899</c:v>
+                  <c:v>135.17686800000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>116.758152</c:v>
+                  <c:v>137.36977199999899</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>114.55516799999999</c:v>
+                  <c:v>136.116683999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>125.412731999999</c:v>
+                  <c:v>135.33350399999901</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>115.499303999999</c:v>
+                  <c:v>134.70695999999899</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>113.453676</c:v>
+                  <c:v>135.80341200000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>116.91550799999899</c:v>
+                  <c:v>135.64677599999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>118.174356</c:v>
+                  <c:v>129.06806399999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>113.453676</c:v>
+                  <c:v>135.960048</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>110.77862399999999</c:v>
+                  <c:v>136.27331999999899</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>116.600796</c:v>
+                  <c:v>134.393688</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>112.82425199999901</c:v>
+                  <c:v>119.82653999999999</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>111.250692</c:v>
+                  <c:v>119.199996</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>97.560720000000003</c:v>
+                  <c:v>120.296448</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>110.46391199999999</c:v>
+                  <c:v>120.453084</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1059,10 +1061,10 @@
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>116.82109439999981</c:v>
+                  <c:v>127.31896199999979</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>116.82109439999981</c:v>
+                  <c:v>127.31896199999979</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1207,7 +1209,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="140"/>
-          <c:min val="95"/>
+          <c:min val="105"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1616,94 +1618,94 @@
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>121.505076</c:v>
+                  <c:v>166.80923999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>106.02068399999899</c:v>
+                  <c:v>120.74540399999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>123.875136</c:v>
+                  <c:v>118.75593600000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>120.87306</c:v>
+                  <c:v>119.674151999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>123.559128</c:v>
+                  <c:v>118.44986400000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>110.444796</c:v>
+                  <c:v>119.521115999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>159.58403999999999</c:v>
+                  <c:v>119.674151999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>97.488467999999997</c:v>
+                  <c:v>118.143792</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>114.868907999999</c:v>
+                  <c:v>119.215043999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>121.03106399999901</c:v>
+                  <c:v>118.60290000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>112.340844</c:v>
+                  <c:v>123.500052</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>123.401124</c:v>
+                  <c:v>117.83772</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>162.74412000000001</c:v>
+                  <c:v>136.355076</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>109.338768</c:v>
+                  <c:v>135.43686</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>145.679688</c:v>
+                  <c:v>136.20204000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>117.554976</c:v>
+                  <c:v>135.89596800000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>111.550823999999</c:v>
+                  <c:v>137.579364</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>122.769108</c:v>
+                  <c:v>136.81418399999899</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>114.868907999999</c:v>
+                  <c:v>135.130788</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>118.186992</c:v>
+                  <c:v>136.049004</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>118.503</c:v>
+                  <c:v>135.742932</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>118.186992</c:v>
+                  <c:v>136.355076</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>115.500923999999</c:v>
+                  <c:v>127.478988</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>125.29717199999899</c:v>
+                  <c:v>136.661148</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>123.401124</c:v>
+                  <c:v>136.355076</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>115.658928</c:v>
+                  <c:v>135.89596800000001</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>114.236892</c:v>
+                  <c:v>135.130788</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>114.07888800000001</c:v>
+                  <c:v>136.049004</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>115.658928</c:v>
+                  <c:v>135.43686</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>111.076812</c:v>
+                  <c:v>135.89596800000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1755,10 +1757,10 @@
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>120.30951239999975</c:v>
+                  <c:v>130.7131487999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>120.30951239999975</c:v>
+                  <c:v>130.7131487999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1902,8 +1904,7 @@
         <c:axId val="281410968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="165"/>
-          <c:min val="95"/>
+          <c:min val="110"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2105,10 +2106,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.8</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.9</cx:f>
+        <cx:f>_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2184,7 +2185,7 @@
         <cx:tickLabels/>
       </cx:axis>
       <cx:axis id="1">
-        <cx:valScaling max="145" min="105"/>
+        <cx:valScaling min="105"/>
         <cx:title>
           <cx:tx>
             <cx:txData>
@@ -2227,10 +2228,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.8</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.4</cx:f>
+        <cx:f>_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2348,10 +2349,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2389,7 +2390,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{3F5A16A3-6E4C-4475-A634-1322A70DC713}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>Medium_frequency</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2433,7 +2434,7 @@
         <cx:tickLabels/>
       </cx:axis>
       <cx:axis id="1">
-        <cx:valScaling max="140" min="95"/>
+        <cx:valScaling max="140" min="105"/>
         <cx:title>
           <cx:tx>
             <cx:txData>
@@ -2476,10 +2477,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2517,7 +2518,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{138ACD3C-CAEA-4AEF-B3DF-B982F1EA92CC}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>High_frequency</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2561,7 +2562,7 @@
         <cx:tickLabels/>
       </cx:axis>
       <cx:axis id="1">
-        <cx:valScaling max="165" min="95"/>
+        <cx:valScaling max="170" min="110"/>
         <cx:title>
           <cx:tx>
             <cx:txData>
@@ -7211,8 +7212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78FE0459-F6C0-45BE-AD60-56F63431C3F0}">
   <dimension ref="A1:E187"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D79" sqref="D79:E80"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B99" activeCellId="1" sqref="B98 B99:B187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7235,7 +7236,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="1">
-        <v>124.104024</v>
+        <v>135.363888</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>1</v>
@@ -7249,14 +7250,14 @@
         <v>10</v>
       </c>
       <c r="B3" s="1">
-        <v>109.325952</v>
+        <v>121.996511999999</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3" s="1">
         <f>AVERAGE(B2,B3,B4,B5,B6,B7,B8,B9,B10,B11,B12,B13,B14,B15,B16,B17,B18,B19,B21,B20,B22,B23,B24,B25,B26,B27,B28,B29,B30,B31)</f>
-        <v>114.10366559999997</v>
+        <v>123.50226239999991</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -7264,14 +7265,14 @@
         <v>10</v>
       </c>
       <c r="B4" s="1">
-        <v>125.216352</v>
+        <v>120.76732800000001</v>
       </c>
       <c r="D4">
         <v>30</v>
       </c>
       <c r="E4" s="1">
         <f>AVERAGE(B2,B3,B4,B5,B6,B7,B8,B9,B10,B11,B12,B13,B14,B15,B16,B17,B18,B19,B21,B20,B22,B23,B24,B25,B26,B27,B28,B29,B30,B31)</f>
-        <v>114.10366559999997</v>
+        <v>123.50226239999991</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -7279,7 +7280,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="1">
-        <v>111.391704</v>
+        <v>119.23084799999999</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -7287,7 +7288,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="1">
-        <v>142.69579200000001</v>
+        <v>119.384496</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>3</v>
@@ -7301,15 +7302,15 @@
         <v>10</v>
       </c>
       <c r="B7" s="1">
-        <v>115.523208</v>
+        <v>119.384496</v>
       </c>
       <c r="D7" s="1">
         <f>MIN(B2:B31)</f>
-        <v>105.19444799999999</v>
+        <v>107.860895999999</v>
       </c>
       <c r="E7" s="1">
         <f>MAX(B2:B31)</f>
-        <v>142.69579200000001</v>
+        <v>137.05401599999999</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -7317,7 +7318,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="1">
-        <v>109.325952</v>
+        <v>119.384496</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -7325,7 +7326,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="1">
-        <v>123.94512</v>
+        <v>119.999088</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>5</v>
@@ -7339,15 +7340,15 @@
         <v>10</v>
       </c>
       <c r="B10" s="1">
-        <v>110.279376</v>
+        <v>119.384496</v>
       </c>
       <c r="D10">
         <f>QUARTILE(B2:B31, 1)</f>
-        <v>108.293076</v>
+        <v>119.384496</v>
       </c>
       <c r="E10">
         <f>QUARTILE(B2:B31, 2)</f>
-        <v>110.994444</v>
+        <v>119.69179200000001</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -7355,7 +7356,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>115.841016</v>
+        <v>119.53814399999899</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
@@ -7363,7 +7364,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>108.05472</v>
+        <v>119.69179200000001</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>7</v>
@@ -7377,15 +7378,15 @@
         <v>10</v>
       </c>
       <c r="B13" s="1">
-        <v>110.438279999999</v>
+        <v>117.54071999999999</v>
       </c>
       <c r="D13">
         <f>QUARTILE(B2:B31, 3)</f>
-        <v>115.76156399999999</v>
+        <v>131.21539199999975</v>
       </c>
       <c r="E13">
         <f xml:space="preserve"> D13 - D10</f>
-        <v>7.4684879999999936</v>
+        <v>11.830895999999754</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
@@ -7393,7 +7394,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="1">
-        <v>107.895816</v>
+        <v>137.05401599999999</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
@@ -7401,7 +7402,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="1">
-        <v>107.2602</v>
+        <v>136.74672000000001</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>16</v>
@@ -7415,15 +7416,15 @@
         <v>10</v>
       </c>
       <c r="B16" s="1">
-        <v>112.504032</v>
+        <v>136.74672000000001</v>
       </c>
       <c r="D16">
         <f>STDEV(B2:B31)</f>
-        <v>8.687703055422892</v>
+        <v>7.8110650475957017</v>
       </c>
       <c r="E16">
         <f xml:space="preserve"> (D16 / E4) * 100</f>
-        <v>7.6138685025933945</v>
+        <v>6.3246331652590904</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -7431,7 +7432,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="1">
-        <v>130.93689599999999</v>
+        <v>120.152736</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -7439,7 +7440,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="1">
-        <v>111.550608</v>
+        <v>119.23084799999999</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -7447,7 +7448,7 @@
         <v>10</v>
       </c>
       <c r="B19" s="1">
-        <v>119.97252</v>
+        <v>119.384496</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -7455,7 +7456,7 @@
         <v>10</v>
       </c>
       <c r="B20" s="1">
-        <v>107.895816</v>
+        <v>120.460032</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
@@ -7463,7 +7464,7 @@
         <v>10</v>
       </c>
       <c r="B21" s="1">
-        <v>107.419104</v>
+        <v>119.384496</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -7471,7 +7472,7 @@
         <v>10</v>
       </c>
       <c r="B22" s="1">
-        <v>107.2602</v>
+        <v>119.84544</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
@@ -7479,7 +7480,7 @@
         <v>10</v>
       </c>
       <c r="B23" s="1">
-        <v>106.14787200000001</v>
+        <v>119.0772</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -7487,7 +7488,7 @@
         <v>10</v>
       </c>
       <c r="B24" s="1">
-        <v>112.504032</v>
+        <v>107.860895999999</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -7495,7 +7496,7 @@
         <v>10</v>
       </c>
       <c r="B25" s="1">
-        <v>105.19444799999999</v>
+        <v>119.53814399999899</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
@@ -7503,7 +7504,7 @@
         <v>10</v>
       </c>
       <c r="B26" s="1">
-        <v>110.597184</v>
+        <v>134.90294399999999</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
@@ -7511,7 +7512,7 @@
         <v>10</v>
       </c>
       <c r="B27" s="1">
-        <v>109.008144</v>
+        <v>135.67118400000001</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
@@ -7519,7 +7520,7 @@
         <v>10</v>
       </c>
       <c r="B28" s="1">
-        <v>112.980744</v>
+        <v>134.288352</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
@@ -7527,7 +7528,7 @@
         <v>10</v>
       </c>
       <c r="B29" s="1">
-        <v>109.008144</v>
+        <v>134.59564800000001</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
@@ -7535,7 +7536,7 @@
         <v>10</v>
       </c>
       <c r="B30" s="1">
-        <v>111.709512</v>
+        <v>118.769904</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
@@ -7543,7 +7544,7 @@
         <v>10</v>
       </c>
       <c r="B31" s="1">
-        <v>127.1232</v>
+        <v>119.69179200000001</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -7562,7 +7563,7 @@
         <v>12</v>
       </c>
       <c r="B34" s="1">
-        <v>136.11294000000001</v>
+        <v>116.223912</v>
       </c>
       <c r="D34" t="s">
         <v>1</v>
@@ -7576,14 +7577,14 @@
         <v>12</v>
       </c>
       <c r="B35" s="1">
-        <v>113.92574399999999</v>
+        <v>122.80262399999999</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35" s="1">
         <f>AVERAGE(B34,B35,B36,B37,B38,B39,B40,B41,B42,B43,B44,B45,B46,B47,B48,B49,B50,B51,B53,B52,B54,B55,B56,B57,B58,B59,B60,B61,B62,B63)</f>
-        <v>116.82109439999981</v>
+        <v>127.31896199999979</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
@@ -7591,14 +7592,14 @@
         <v>12</v>
       </c>
       <c r="B36" s="1">
-        <v>120.849408</v>
+        <v>119.983176</v>
       </c>
       <c r="D36">
         <v>30</v>
       </c>
       <c r="E36" s="1">
         <f>AVERAGE(B34,B35,B36,B37,B38,B39,B40,B41,B42,B43,B44,B45,B46,B47,B48,B49,B50,B51,B53,B52,B54,B55,B56,B57,B58,B59,B60,B61,B62,B63)</f>
-        <v>116.82109439999981</v>
+        <v>127.31896199999979</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
@@ -7606,7 +7607,7 @@
         <v>12</v>
       </c>
       <c r="B37" s="1">
-        <v>120.37734</v>
+        <v>120.60972</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
@@ -7614,7 +7615,7 @@
         <v>12</v>
       </c>
       <c r="B38" s="1">
-        <v>112.82425199999901</v>
+        <v>120.92299199999999</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>3</v>
@@ -7628,15 +7629,15 @@
         <v>12</v>
       </c>
       <c r="B39" s="1">
-        <v>129.66134400000001</v>
+        <v>120.139811999999</v>
       </c>
       <c r="D39" s="1">
         <f>MIN(B34:B63)</f>
-        <v>97.560720000000003</v>
+        <v>116.223912</v>
       </c>
       <c r="E39" s="1">
         <f>MAX(B34:B63)</f>
-        <v>138.00121200000001</v>
+        <v>139.249404</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
@@ -7644,7 +7645,7 @@
         <v>12</v>
       </c>
       <c r="B40" s="1">
-        <v>138.00121200000001</v>
+        <v>120.296448</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
@@ -7652,7 +7653,7 @@
         <v>12</v>
       </c>
       <c r="B41" s="1">
-        <v>131.864328</v>
+        <v>121.3929</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>5</v>
@@ -7666,15 +7667,15 @@
         <v>12</v>
       </c>
       <c r="B42" s="1">
-        <v>115.18459199999999</v>
+        <v>119.669904</v>
       </c>
       <c r="D42">
         <f>QUARTILE(B34:B63, 1)</f>
-        <v>112.58821799999976</v>
+        <v>120.17897099999925</v>
       </c>
       <c r="E42">
         <f>QUARTILE(B34:B63, 2)</f>
-        <v>114.86987999999999</v>
+        <v>122.17608</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
@@ -7682,7 +7683,7 @@
         <v>12</v>
       </c>
       <c r="B43" s="1">
-        <v>113.29631999999999</v>
+        <v>119.82653999999999</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
@@ -7690,7 +7691,7 @@
         <v>12</v>
       </c>
       <c r="B44" s="1">
-        <v>120.534696</v>
+        <v>120.139811999999</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>7</v>
@@ -7704,15 +7705,15 @@
         <v>12</v>
       </c>
       <c r="B45" s="1">
-        <v>110.621268</v>
+        <v>121.549536</v>
       </c>
       <c r="D45">
         <f>QUARTILE(B34:B63, 3)</f>
-        <v>119.826594</v>
+        <v>135.607617</v>
       </c>
       <c r="E45">
         <f xml:space="preserve"> D45 - D42</f>
-        <v>7.2383760000002439</v>
+        <v>15.428646000000754</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
@@ -7720,7 +7721,7 @@
         <v>12</v>
       </c>
       <c r="B46" s="1">
-        <v>108.103572</v>
+        <v>135.64677599999999</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
@@ -7728,7 +7729,7 @@
         <v>12</v>
       </c>
       <c r="B47" s="1">
-        <v>111.40804799999999</v>
+        <v>139.249404</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>16</v>
@@ -7742,15 +7743,15 @@
         <v>12</v>
       </c>
       <c r="B48" s="1">
-        <v>112.50954</v>
+        <v>135.49014</v>
       </c>
       <c r="D48">
         <f>STDEV(B34:B63)</f>
-        <v>8.4239171090860925</v>
+        <v>7.9305690413131398</v>
       </c>
       <c r="E48">
         <f xml:space="preserve"> (D48 / E36) * 100</f>
-        <v>7.2109554805592602</v>
+        <v>6.228898599811985</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
@@ -7758,7 +7759,7 @@
         <v>12</v>
       </c>
       <c r="B49" s="1">
-        <v>115.65665999999899</v>
+        <v>135.17686800000001</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
@@ -7766,7 +7767,7 @@
         <v>12</v>
       </c>
       <c r="B50" s="1">
-        <v>116.758152</v>
+        <v>137.36977199999899</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
@@ -7774,7 +7775,7 @@
         <v>12</v>
       </c>
       <c r="B51" s="1">
-        <v>114.55516799999999</v>
+        <v>136.116683999999</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
@@ -7782,7 +7783,7 @@
         <v>12</v>
       </c>
       <c r="B52" s="1">
-        <v>125.412731999999</v>
+        <v>135.33350399999901</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
@@ -7790,7 +7791,7 @@
         <v>12</v>
       </c>
       <c r="B53" s="1">
-        <v>115.499303999999</v>
+        <v>134.70695999999899</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
@@ -7798,7 +7799,7 @@
         <v>12</v>
       </c>
       <c r="B54" s="1">
-        <v>113.453676</v>
+        <v>135.80341200000001</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
@@ -7806,7 +7807,7 @@
         <v>12</v>
       </c>
       <c r="B55" s="1">
-        <v>116.91550799999899</v>
+        <v>135.64677599999999</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
@@ -7814,7 +7815,7 @@
         <v>12</v>
       </c>
       <c r="B56" s="1">
-        <v>118.174356</v>
+        <v>129.06806399999999</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
@@ -7822,7 +7823,7 @@
         <v>12</v>
       </c>
       <c r="B57" s="1">
-        <v>113.453676</v>
+        <v>135.960048</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
@@ -7830,7 +7831,7 @@
         <v>12</v>
       </c>
       <c r="B58" s="1">
-        <v>110.77862399999999</v>
+        <v>136.27331999999899</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
@@ -7838,7 +7839,7 @@
         <v>12</v>
       </c>
       <c r="B59" s="1">
-        <v>116.600796</v>
+        <v>134.393688</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
@@ -7846,7 +7847,7 @@
         <v>12</v>
       </c>
       <c r="B60" s="1">
-        <v>112.82425199999901</v>
+        <v>119.82653999999999</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
@@ -7854,7 +7855,7 @@
         <v>12</v>
       </c>
       <c r="B61" s="1">
-        <v>111.250692</v>
+        <v>119.199996</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
@@ -7862,7 +7863,7 @@
         <v>12</v>
       </c>
       <c r="B62" s="1">
-        <v>97.560720000000003</v>
+        <v>120.296448</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
@@ -7870,7 +7871,7 @@
         <v>12</v>
       </c>
       <c r="B63" s="1">
-        <v>110.46391199999999</v>
+        <v>120.453084</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
@@ -7889,7 +7890,7 @@
         <v>14</v>
       </c>
       <c r="B66" s="1">
-        <v>121.505076</v>
+        <v>166.80923999999999</v>
       </c>
       <c r="D66" t="s">
         <v>1</v>
@@ -7903,14 +7904,14 @@
         <v>14</v>
       </c>
       <c r="B67" s="1">
-        <v>106.02068399999899</v>
+        <v>120.74540399999999</v>
       </c>
       <c r="D67">
         <v>0</v>
       </c>
       <c r="E67" s="1">
         <f>AVERAGE(B66,B67,B68,B69,B70,B71,B72,B73,B74,B75,B76,B77,B78,B79,B80,B81,B82,B83,B85,B84,B86,B87,B88,B89,B90,B91,B92,B93,B94,B95)</f>
-        <v>120.30951239999975</v>
+        <v>130.7131487999998</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
@@ -7918,14 +7919,14 @@
         <v>14</v>
       </c>
       <c r="B68" s="1">
-        <v>123.875136</v>
+        <v>118.75593600000001</v>
       </c>
       <c r="D68">
         <v>30</v>
       </c>
       <c r="E68" s="1">
         <f>AVERAGE(B66,B67,B68,B69,B70,B71,B72,B73,B74,B75,B76,B77,B78,B79,B80,B81,B82,B83,B85,B84,B86,B87,B88,B89,B90,B91,B92,B93,B94,B95)</f>
-        <v>120.30951239999975</v>
+        <v>130.7131487999998</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
@@ -7933,7 +7934,7 @@
         <v>14</v>
       </c>
       <c r="B69" s="1">
-        <v>120.87306</v>
+        <v>119.674151999999</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
@@ -7941,7 +7942,7 @@
         <v>14</v>
       </c>
       <c r="B70" s="1">
-        <v>123.559128</v>
+        <v>118.44986400000001</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>3</v>
@@ -7955,15 +7956,15 @@
         <v>14</v>
       </c>
       <c r="B71" s="1">
-        <v>110.444796</v>
+        <v>119.521115999999</v>
       </c>
       <c r="D71" s="1">
         <f>MIN(B66:B95)</f>
-        <v>97.488467999999997</v>
+        <v>117.83772</v>
       </c>
       <c r="E71" s="1">
         <f>MAX(B66:B95)</f>
-        <v>162.74412000000001</v>
+        <v>166.80923999999999</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
@@ -7971,7 +7972,7 @@
         <v>14</v>
       </c>
       <c r="B72" s="1">
-        <v>159.58403999999999</v>
+        <v>119.674151999999</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
@@ -7979,7 +7980,7 @@
         <v>14</v>
       </c>
       <c r="B73" s="1">
-        <v>97.488467999999997</v>
+        <v>118.143792</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>5</v>
@@ -7993,15 +7994,15 @@
         <v>14</v>
       </c>
       <c r="B74" s="1">
-        <v>114.868907999999</v>
+        <v>119.215043999999</v>
       </c>
       <c r="D74">
         <f>QUARTILE(B66:B95, 1)</f>
-        <v>114.11838900000001</v>
+        <v>119.674151999999</v>
       </c>
       <c r="E74">
         <f>QUARTILE(B66:B95, 2)</f>
-        <v>117.87098399999999</v>
+        <v>135.43686</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
@@ -8009,7 +8010,7 @@
         <v>14</v>
       </c>
       <c r="B75" s="1">
-        <v>121.03106399999901</v>
+        <v>118.60290000000001</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
@@ -8017,7 +8018,7 @@
         <v>14</v>
       </c>
       <c r="B76" s="1">
-        <v>112.340844</v>
+        <v>123.500052</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>7</v>
@@ -8031,15 +8032,15 @@
         <v>14</v>
       </c>
       <c r="B77" s="1">
-        <v>123.401124</v>
+        <v>117.83772</v>
       </c>
       <c r="D77">
         <f>QUARTILE(B66:B95, 3)</f>
-        <v>123.24312</v>
+        <v>136.163781</v>
       </c>
       <c r="E77">
         <f xml:space="preserve"> D77 - D74</f>
-        <v>9.124730999999997</v>
+        <v>16.489629000001003</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
@@ -8047,7 +8048,7 @@
         <v>14</v>
       </c>
       <c r="B78" s="1">
-        <v>162.74412000000001</v>
+        <v>136.355076</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
@@ -8055,7 +8056,7 @@
         <v>14</v>
       </c>
       <c r="B79" s="1">
-        <v>109.338768</v>
+        <v>135.43686</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>16</v>
@@ -8069,15 +8070,15 @@
         <v>14</v>
       </c>
       <c r="B80" s="1">
-        <v>145.679688</v>
+        <v>136.20204000000001</v>
       </c>
       <c r="D80">
         <f>STDEV(B66:B95)</f>
-        <v>13.710867690342557</v>
+        <v>10.539904875130768</v>
       </c>
       <c r="E80">
         <f xml:space="preserve"> (D80 / E68) * 100</f>
-        <v>11.396328866130942</v>
+        <v>8.0633853379643963</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
@@ -8085,7 +8086,7 @@
         <v>14</v>
       </c>
       <c r="B81" s="1">
-        <v>117.554976</v>
+        <v>135.89596800000001</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
@@ -8093,7 +8094,7 @@
         <v>14</v>
       </c>
       <c r="B82" s="1">
-        <v>111.550823999999</v>
+        <v>137.579364</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
@@ -8101,7 +8102,7 @@
         <v>14</v>
       </c>
       <c r="B83" s="1">
-        <v>122.769108</v>
+        <v>136.81418399999899</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
@@ -8109,7 +8110,7 @@
         <v>14</v>
       </c>
       <c r="B84" s="1">
-        <v>114.868907999999</v>
+        <v>135.130788</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
@@ -8117,7 +8118,7 @@
         <v>14</v>
       </c>
       <c r="B85" s="1">
-        <v>118.186992</v>
+        <v>136.049004</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
@@ -8125,7 +8126,7 @@
         <v>14</v>
       </c>
       <c r="B86" s="1">
-        <v>118.503</v>
+        <v>135.742932</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
@@ -8133,7 +8134,7 @@
         <v>14</v>
       </c>
       <c r="B87" s="1">
-        <v>118.186992</v>
+        <v>136.355076</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
@@ -8141,7 +8142,7 @@
         <v>14</v>
       </c>
       <c r="B88" s="1">
-        <v>115.500923999999</v>
+        <v>127.478988</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
@@ -8149,7 +8150,7 @@
         <v>14</v>
       </c>
       <c r="B89" s="1">
-        <v>125.29717199999899</v>
+        <v>136.661148</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
@@ -8157,7 +8158,7 @@
         <v>14</v>
       </c>
       <c r="B90" s="1">
-        <v>123.401124</v>
+        <v>136.355076</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
@@ -8165,7 +8166,7 @@
         <v>14</v>
       </c>
       <c r="B91" s="1">
-        <v>115.658928</v>
+        <v>135.89596800000001</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
@@ -8173,7 +8174,7 @@
         <v>14</v>
       </c>
       <c r="B92" s="1">
-        <v>114.236892</v>
+        <v>135.130788</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
@@ -8181,7 +8182,7 @@
         <v>14</v>
       </c>
       <c r="B93" s="1">
-        <v>114.07888800000001</v>
+        <v>136.049004</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
@@ -8189,7 +8190,7 @@
         <v>14</v>
       </c>
       <c r="B94" s="1">
-        <v>115.658928</v>
+        <v>135.43686</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
@@ -8197,7 +8198,7 @@
         <v>14</v>
       </c>
       <c r="B95" s="1">
-        <v>111.076812</v>
+        <v>135.89596800000001</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
@@ -8213,7 +8214,7 @@
         <v>10</v>
       </c>
       <c r="B98" s="1">
-        <v>124.104024</v>
+        <v>135.363888</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
@@ -8221,7 +8222,7 @@
         <v>10</v>
       </c>
       <c r="B99" s="1">
-        <v>109.325952</v>
+        <v>121.996511999999</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
@@ -8229,7 +8230,7 @@
         <v>10</v>
       </c>
       <c r="B100" s="1">
-        <v>125.216352</v>
+        <v>120.76732800000001</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
@@ -8237,7 +8238,7 @@
         <v>10</v>
       </c>
       <c r="B101" s="1">
-        <v>111.391704</v>
+        <v>119.23084799999999</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
@@ -8245,7 +8246,7 @@
         <v>10</v>
       </c>
       <c r="B102" s="1">
-        <v>142.69579200000001</v>
+        <v>119.384496</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
@@ -8253,7 +8254,7 @@
         <v>10</v>
       </c>
       <c r="B103" s="1">
-        <v>115.523208</v>
+        <v>119.384496</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
@@ -8261,7 +8262,7 @@
         <v>10</v>
       </c>
       <c r="B104" s="1">
-        <v>109.325952</v>
+        <v>119.384496</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
@@ -8269,7 +8270,7 @@
         <v>10</v>
       </c>
       <c r="B105" s="1">
-        <v>123.94512</v>
+        <v>119.999088</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
@@ -8277,7 +8278,7 @@
         <v>10</v>
       </c>
       <c r="B106" s="1">
-        <v>110.279376</v>
+        <v>119.384496</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
@@ -8285,7 +8286,7 @@
         <v>10</v>
       </c>
       <c r="B107" s="1">
-        <v>115.841016</v>
+        <v>119.53814399999899</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
@@ -8293,7 +8294,7 @@
         <v>10</v>
       </c>
       <c r="B108" s="1">
-        <v>108.05472</v>
+        <v>119.69179200000001</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
@@ -8301,7 +8302,7 @@
         <v>10</v>
       </c>
       <c r="B109" s="1">
-        <v>110.438279999999</v>
+        <v>117.54071999999999</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
@@ -8309,7 +8310,7 @@
         <v>10</v>
       </c>
       <c r="B110" s="1">
-        <v>107.895816</v>
+        <v>137.05401599999999</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
@@ -8317,7 +8318,7 @@
         <v>10</v>
       </c>
       <c r="B111" s="1">
-        <v>107.2602</v>
+        <v>136.74672000000001</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
@@ -8325,7 +8326,7 @@
         <v>10</v>
       </c>
       <c r="B112" s="1">
-        <v>112.504032</v>
+        <v>136.74672000000001</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
@@ -8333,7 +8334,7 @@
         <v>10</v>
       </c>
       <c r="B113" s="1">
-        <v>130.93689599999999</v>
+        <v>120.152736</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
@@ -8341,7 +8342,7 @@
         <v>10</v>
       </c>
       <c r="B114" s="1">
-        <v>111.550608</v>
+        <v>119.23084799999999</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
@@ -8349,7 +8350,7 @@
         <v>10</v>
       </c>
       <c r="B115" s="1">
-        <v>119.97252</v>
+        <v>119.384496</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
@@ -8357,7 +8358,7 @@
         <v>10</v>
       </c>
       <c r="B116" s="1">
-        <v>107.895816</v>
+        <v>120.460032</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
@@ -8365,7 +8366,7 @@
         <v>10</v>
       </c>
       <c r="B117" s="1">
-        <v>107.419104</v>
+        <v>119.384496</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
@@ -8373,7 +8374,7 @@
         <v>10</v>
       </c>
       <c r="B118" s="1">
-        <v>107.2602</v>
+        <v>119.84544</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
@@ -8381,7 +8382,7 @@
         <v>10</v>
       </c>
       <c r="B119" s="1">
-        <v>106.14787200000001</v>
+        <v>119.0772</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
@@ -8389,7 +8390,7 @@
         <v>10</v>
       </c>
       <c r="B120" s="1">
-        <v>112.504032</v>
+        <v>107.860895999999</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
@@ -8397,7 +8398,7 @@
         <v>10</v>
       </c>
       <c r="B121" s="1">
-        <v>105.19444799999999</v>
+        <v>119.53814399999899</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
@@ -8405,7 +8406,7 @@
         <v>10</v>
       </c>
       <c r="B122" s="1">
-        <v>110.597184</v>
+        <v>134.90294399999999</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
@@ -8413,7 +8414,7 @@
         <v>10</v>
       </c>
       <c r="B123" s="1">
-        <v>109.008144</v>
+        <v>135.67118400000001</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
@@ -8421,7 +8422,7 @@
         <v>10</v>
       </c>
       <c r="B124" s="1">
-        <v>112.980744</v>
+        <v>134.288352</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
@@ -8429,7 +8430,7 @@
         <v>10</v>
       </c>
       <c r="B125" s="1">
-        <v>109.008144</v>
+        <v>134.59564800000001</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
@@ -8437,7 +8438,7 @@
         <v>10</v>
       </c>
       <c r="B126" s="1">
-        <v>111.709512</v>
+        <v>118.769904</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
@@ -8445,7 +8446,7 @@
         <v>10</v>
       </c>
       <c r="B127" s="1">
-        <v>127.1232</v>
+        <v>119.69179200000001</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
@@ -8453,7 +8454,7 @@
         <v>12</v>
       </c>
       <c r="B128" s="1">
-        <v>136.11294000000001</v>
+        <v>116.223912</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
@@ -8461,7 +8462,7 @@
         <v>12</v>
       </c>
       <c r="B129" s="1">
-        <v>113.92574399999999</v>
+        <v>122.80262399999999</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
@@ -8469,7 +8470,7 @@
         <v>12</v>
       </c>
       <c r="B130" s="1">
-        <v>120.849408</v>
+        <v>119.983176</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
@@ -8477,7 +8478,7 @@
         <v>12</v>
       </c>
       <c r="B131" s="1">
-        <v>120.37734</v>
+        <v>120.60972</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
@@ -8485,7 +8486,7 @@
         <v>12</v>
       </c>
       <c r="B132" s="1">
-        <v>112.82425199999901</v>
+        <v>120.92299199999999</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
@@ -8493,7 +8494,7 @@
         <v>12</v>
       </c>
       <c r="B133" s="1">
-        <v>129.66134400000001</v>
+        <v>120.139811999999</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
@@ -8501,7 +8502,7 @@
         <v>12</v>
       </c>
       <c r="B134" s="1">
-        <v>138.00121200000001</v>
+        <v>120.296448</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
@@ -8509,7 +8510,7 @@
         <v>12</v>
       </c>
       <c r="B135" s="1">
-        <v>131.864328</v>
+        <v>121.3929</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
@@ -8517,7 +8518,7 @@
         <v>12</v>
       </c>
       <c r="B136" s="1">
-        <v>115.18459199999999</v>
+        <v>119.669904</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
@@ -8525,7 +8526,7 @@
         <v>12</v>
       </c>
       <c r="B137" s="1">
-        <v>113.29631999999999</v>
+        <v>119.82653999999999</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
@@ -8533,7 +8534,7 @@
         <v>12</v>
       </c>
       <c r="B138" s="1">
-        <v>120.534696</v>
+        <v>120.139811999999</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
@@ -8541,7 +8542,7 @@
         <v>12</v>
       </c>
       <c r="B139" s="1">
-        <v>110.621268</v>
+        <v>121.549536</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
@@ -8549,7 +8550,7 @@
         <v>12</v>
       </c>
       <c r="B140" s="1">
-        <v>108.103572</v>
+        <v>135.64677599999999</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
@@ -8557,7 +8558,7 @@
         <v>12</v>
       </c>
       <c r="B141" s="1">
-        <v>111.40804799999999</v>
+        <v>139.249404</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
@@ -8565,7 +8566,7 @@
         <v>12</v>
       </c>
       <c r="B142" s="1">
-        <v>112.50954</v>
+        <v>135.49014</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
@@ -8573,7 +8574,7 @@
         <v>12</v>
       </c>
       <c r="B143" s="1">
-        <v>115.65665999999899</v>
+        <v>135.17686800000001</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
@@ -8581,7 +8582,7 @@
         <v>12</v>
       </c>
       <c r="B144" s="1">
-        <v>116.758152</v>
+        <v>137.36977199999899</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
@@ -8589,7 +8590,7 @@
         <v>12</v>
       </c>
       <c r="B145" s="1">
-        <v>114.55516799999999</v>
+        <v>136.116683999999</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
@@ -8597,7 +8598,7 @@
         <v>12</v>
       </c>
       <c r="B146" s="1">
-        <v>125.412731999999</v>
+        <v>135.33350399999901</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
@@ -8605,7 +8606,7 @@
         <v>12</v>
       </c>
       <c r="B147" s="1">
-        <v>115.499303999999</v>
+        <v>134.70695999999899</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
@@ -8613,7 +8614,7 @@
         <v>12</v>
       </c>
       <c r="B148" s="1">
-        <v>113.453676</v>
+        <v>135.80341200000001</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
@@ -8621,7 +8622,7 @@
         <v>12</v>
       </c>
       <c r="B149" s="1">
-        <v>116.91550799999899</v>
+        <v>135.64677599999999</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
@@ -8629,7 +8630,7 @@
         <v>12</v>
       </c>
       <c r="B150" s="1">
-        <v>118.174356</v>
+        <v>129.06806399999999</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
@@ -8637,7 +8638,7 @@
         <v>12</v>
       </c>
       <c r="B151" s="1">
-        <v>113.453676</v>
+        <v>135.960048</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
@@ -8645,7 +8646,7 @@
         <v>12</v>
       </c>
       <c r="B152" s="1">
-        <v>110.77862399999999</v>
+        <v>136.27331999999899</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
@@ -8653,7 +8654,7 @@
         <v>12</v>
       </c>
       <c r="B153" s="1">
-        <v>116.600796</v>
+        <v>134.393688</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.35">
@@ -8661,7 +8662,7 @@
         <v>12</v>
       </c>
       <c r="B154" s="1">
-        <v>112.82425199999901</v>
+        <v>119.82653999999999</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.35">
@@ -8669,7 +8670,7 @@
         <v>12</v>
       </c>
       <c r="B155" s="1">
-        <v>111.250692</v>
+        <v>119.199996</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
@@ -8677,7 +8678,7 @@
         <v>12</v>
       </c>
       <c r="B156" s="1">
-        <v>97.560720000000003</v>
+        <v>120.296448</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.35">
@@ -8685,7 +8686,7 @@
         <v>12</v>
       </c>
       <c r="B157" s="1">
-        <v>110.46391199999999</v>
+        <v>120.453084</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.35">
@@ -8693,7 +8694,7 @@
         <v>14</v>
       </c>
       <c r="B158" s="1">
-        <v>121.505076</v>
+        <v>166.80923999999999</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
@@ -8701,7 +8702,7 @@
         <v>14</v>
       </c>
       <c r="B159" s="1">
-        <v>106.02068399999899</v>
+        <v>120.74540399999999</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
@@ -8709,7 +8710,7 @@
         <v>14</v>
       </c>
       <c r="B160" s="1">
-        <v>123.875136</v>
+        <v>118.75593600000001</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
@@ -8717,7 +8718,7 @@
         <v>14</v>
       </c>
       <c r="B161" s="1">
-        <v>120.87306</v>
+        <v>119.674151999999</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
@@ -8725,7 +8726,7 @@
         <v>14</v>
       </c>
       <c r="B162" s="1">
-        <v>123.559128</v>
+        <v>118.44986400000001</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
@@ -8733,7 +8734,7 @@
         <v>14</v>
       </c>
       <c r="B163" s="1">
-        <v>110.444796</v>
+        <v>119.521115999999</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
@@ -8741,7 +8742,7 @@
         <v>14</v>
       </c>
       <c r="B164" s="1">
-        <v>159.58403999999999</v>
+        <v>119.674151999999</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
@@ -8749,7 +8750,7 @@
         <v>14</v>
       </c>
       <c r="B165" s="1">
-        <v>97.488467999999997</v>
+        <v>118.143792</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
@@ -8757,7 +8758,7 @@
         <v>14</v>
       </c>
       <c r="B166" s="1">
-        <v>114.868907999999</v>
+        <v>119.215043999999</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
@@ -8765,7 +8766,7 @@
         <v>14</v>
       </c>
       <c r="B167" s="1">
-        <v>121.03106399999901</v>
+        <v>118.60290000000001</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
@@ -8773,7 +8774,7 @@
         <v>14</v>
       </c>
       <c r="B168" s="1">
-        <v>112.340844</v>
+        <v>123.500052</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
@@ -8781,7 +8782,7 @@
         <v>14</v>
       </c>
       <c r="B169" s="1">
-        <v>123.401124</v>
+        <v>117.83772</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
@@ -8789,7 +8790,7 @@
         <v>14</v>
       </c>
       <c r="B170" s="1">
-        <v>162.74412000000001</v>
+        <v>136.355076</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
@@ -8797,7 +8798,7 @@
         <v>14</v>
       </c>
       <c r="B171" s="1">
-        <v>109.338768</v>
+        <v>135.43686</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
@@ -8805,7 +8806,7 @@
         <v>14</v>
       </c>
       <c r="B172" s="1">
-        <v>145.679688</v>
+        <v>136.20204000000001</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.35">
@@ -8813,7 +8814,7 @@
         <v>14</v>
       </c>
       <c r="B173" s="1">
-        <v>117.554976</v>
+        <v>135.89596800000001</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
@@ -8821,7 +8822,7 @@
         <v>14</v>
       </c>
       <c r="B174" s="1">
-        <v>111.550823999999</v>
+        <v>137.579364</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
@@ -8829,7 +8830,7 @@
         <v>14</v>
       </c>
       <c r="B175" s="1">
-        <v>122.769108</v>
+        <v>136.81418399999899</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
@@ -8837,7 +8838,7 @@
         <v>14</v>
       </c>
       <c r="B176" s="1">
-        <v>114.868907999999</v>
+        <v>135.130788</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
@@ -8845,7 +8846,7 @@
         <v>14</v>
       </c>
       <c r="B177" s="1">
-        <v>118.186992</v>
+        <v>136.049004</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.35">
@@ -8853,7 +8854,7 @@
         <v>14</v>
       </c>
       <c r="B178" s="1">
-        <v>118.503</v>
+        <v>135.742932</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.35">
@@ -8861,7 +8862,7 @@
         <v>14</v>
       </c>
       <c r="B179" s="1">
-        <v>118.186992</v>
+        <v>136.355076</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
@@ -8869,7 +8870,7 @@
         <v>14</v>
       </c>
       <c r="B180" s="1">
-        <v>115.500923999999</v>
+        <v>127.478988</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
@@ -8877,7 +8878,7 @@
         <v>14</v>
       </c>
       <c r="B181" s="1">
-        <v>125.29717199999899</v>
+        <v>136.661148</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.35">
@@ -8885,7 +8886,7 @@
         <v>14</v>
       </c>
       <c r="B182" s="1">
-        <v>123.401124</v>
+        <v>136.355076</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
@@ -8893,7 +8894,7 @@
         <v>14</v>
       </c>
       <c r="B183" s="1">
-        <v>115.658928</v>
+        <v>135.89596800000001</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.35">
@@ -8901,7 +8902,7 @@
         <v>14</v>
       </c>
       <c r="B184" s="1">
-        <v>114.236892</v>
+        <v>135.130788</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
@@ -8909,7 +8910,7 @@
         <v>14</v>
       </c>
       <c r="B185" s="1">
-        <v>114.07888800000001</v>
+        <v>136.049004</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.35">
@@ -8917,7 +8918,7 @@
         <v>14</v>
       </c>
       <c r="B186" s="1">
-        <v>115.658928</v>
+        <v>135.43686</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.35">
@@ -8925,7 +8926,7 @@
         <v>14</v>
       </c>
       <c r="B187" s="1">
-        <v>111.076812</v>
+        <v>135.89596800000001</v>
       </c>
     </row>
   </sheetData>
